--- a/cmip6/models/mpi-esm-1-2-ham/cmip6_hammoz-consortium_mpi-esm-1-2-ham_ocean.xlsx
+++ b/cmip6/models/mpi-esm-1-2-ham/cmip6_hammoz-consortium_mpi-esm-1-2-ham_ocean.xlsx
@@ -46,7 +46,7 @@
     <t>MPI-ESM-1-2-HAM</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Ocean</t>

--- a/cmip6/models/mpi-esm-1-2-ham/cmip6_hammoz-consortium_mpi-esm-1-2-ham_ocean.xlsx
+++ b/cmip6/models/mpi-esm-1-2-ham/cmip6_hammoz-consortium_mpi-esm-1-2-ham_ocean.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="7. Uplow Boundaries" sheetId="9" r:id="rId9"/>
     <sheet name="8. Boundary Forcing" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="813">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -2452,11 +2452,26 @@
   <si>
     <t>cmip6.ocean.boundary_forcing.tracers.fresh_water_forcing.forced_mode_restoring</t>
   </si>
+  <si>
+    <t>MPIOM1.6.3</t>
+  </si>
+  <si>
+    <t>For a description of the ocean model MPIOM1.6.3 see Mauritsen et al. (2019), Jungclaus et al. (2013) and Marsland et al. (2003).</t>
+  </si>
+  <si>
+    <t>Mauritsen_2019</t>
+  </si>
+  <si>
+    <t>Marsland_2003</t>
+  </si>
+  <si>
+    <t>Jungclaus_2013</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="15">
     <font>
       <sz val="11"/>
@@ -2653,6 +2668,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2731,6 +2751,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2765,6 +2786,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2940,10 +2962,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2952,12 +2974,12 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="33.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="20.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2965,7 +2987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="20.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2973,7 +2995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="20.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2981,7 +3003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="20.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2989,7 +3011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="20.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -2997,42 +3019,42 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="20.25">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="20.25">
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="20.25">
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="20.25">
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="20.25">
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="20.25">
       <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" ht="20.25">
       <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="18">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -3040,7 +3062,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" ht="18">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -3048,7 +3070,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="18">
       <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
@@ -3056,7 +3078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" ht="18">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -3064,13 +3086,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" ht="20.25">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" ht="20.25">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
@@ -3086,8 +3108,8 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3158,7 +3180,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
+    <row r="11" spans="1:3" ht="177.95" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
@@ -3207,7 +3229,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="178" customHeight="1">
+    <row r="20" spans="1:3" ht="177.95" customHeight="1">
       <c r="B20" s="11"/>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
@@ -3234,7 +3256,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="178" customHeight="1">
+    <row r="25" spans="1:3" ht="177.95" customHeight="1">
       <c r="B25" s="11"/>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
@@ -3261,7 +3283,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="178" customHeight="1">
+    <row r="30" spans="1:3" ht="177.95" customHeight="1">
       <c r="B30" s="11"/>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -3288,7 +3310,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:32" ht="178" customHeight="1">
+    <row r="35" spans="1:32" ht="177.95" customHeight="1">
       <c r="B35" s="11"/>
     </row>
     <row r="37" spans="1:32" ht="24" customHeight="1">
@@ -3315,7 +3337,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:32" ht="178" customHeight="1">
+    <row r="40" spans="1:32" ht="177.95" customHeight="1">
       <c r="B40" s="11"/>
     </row>
     <row r="43" spans="1:32" ht="24" customHeight="1">
@@ -3511,7 +3533,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="178" customHeight="1">
+    <row r="73" spans="1:3" ht="177.95" customHeight="1">
       <c r="B73" s="11"/>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
@@ -3667,10 +3689,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3679,7 +3703,7 @@
     <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="30">
       <c r="A1" s="7" t="s">
         <v>28</v>
       </c>
@@ -3690,7 +3714,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="18">
       <c r="A5" s="9" t="s">
         <v>30</v>
       </c>
@@ -3706,7 +3730,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="15.75">
       <c r="A8" s="10" t="s">
         <v>33</v>
       </c>
@@ -3714,11 +3738,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="18">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="18">
       <c r="A12" s="9" t="s">
         <v>35</v>
       </c>
@@ -3734,7 +3758,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="15.75">
       <c r="A16" s="10" t="s">
         <v>33</v>
       </c>
@@ -3742,16 +3766,30 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="11"/>
+    <row r="17" spans="1:2" ht="18">
+      <c r="A17" s="11" t="s">
+        <v>810</v>
+      </c>
       <c r="B17" s="11"/>
+    </row>
+    <row r="18" spans="1:2" ht="18">
+      <c r="A18" s="11" t="s">
+        <v>812</v>
+      </c>
+      <c r="B18" s="11"/>
+    </row>
+    <row r="19" spans="1:2" ht="18">
+      <c r="A19" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="B19" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:B19">
       <formula1>"Top Level,Key Properties,Grid,Timestepping Framework,Advection,Lateral Physics,Vertical Physics,Uplow Boundaries,Boundary Forcing"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3764,10 +3802,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD198"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH198"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3810,7 +3850,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>808</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -3863,8 +3905,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1">
-      <c r="B16" s="11"/>
+    <row r="16" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B16" s="11" t="s">
+        <v>809</v>
+      </c>
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
@@ -4298,7 +4342,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="1:32" ht="178" customHeight="1">
+    <row r="79" spans="1:32" ht="177.95" customHeight="1">
       <c r="B79" s="11"/>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
@@ -4360,7 +4404,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="178" customHeight="1">
+    <row r="92" spans="1:3" ht="177.95" customHeight="1">
       <c r="B92" s="11"/>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
@@ -4387,7 +4431,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="178" customHeight="1">
+    <row r="97" spans="1:3" ht="177.95" customHeight="1">
       <c r="B97" s="11"/>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
@@ -4678,7 +4722,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="178" customHeight="1">
+    <row r="155" spans="1:3" ht="177.95" customHeight="1">
       <c r="B155" s="11"/>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
@@ -4799,7 +4843,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="179" spans="1:32" ht="178" customHeight="1">
+    <row r="179" spans="1:32" ht="177.95" customHeight="1">
       <c r="B179" s="11"/>
     </row>
     <row r="181" spans="1:32" ht="24" customHeight="1">
@@ -4950,12 +4994,12 @@
       <formula1>AA54:AB54</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B58">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B70">
       <formula1>AA70:AF70</formula1>
@@ -4973,8 +5017,8 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B146">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B184">
       <formula1>AA184:AF184</formula1>
@@ -4988,8 +5032,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AN39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5060,7 +5104,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
+    <row r="11" spans="1:3" ht="177.95" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -5306,8 +5350,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5378,7 +5422,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="178" customHeight="1">
+    <row r="11" spans="1:30" ht="177.95" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
@@ -5744,8 +5788,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5816,7 +5860,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
+    <row r="11" spans="1:3" ht="177.95" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -6141,8 +6185,8 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52">
       <formula1>AA52:AE52</formula1>
@@ -6156,8 +6200,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD127"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF127"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6228,7 +6272,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="178" customHeight="1">
+    <row r="11" spans="1:29" ht="177.95" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
@@ -6994,8 +7038,8 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD119"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI119"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7066,7 +7110,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
+    <row r="11" spans="1:3" ht="177.95" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -7726,8 +7770,8 @@
       <formula1>AA27:AI27</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
       <formula1>0</formula1>
@@ -7736,8 +7780,8 @@
       <formula1>AA47:AI47</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55">
       <formula1>0</formula1>
@@ -7772,8 +7816,8 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7844,7 +7888,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
+    <row r="11" spans="1:3" ht="177.95" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -7965,7 +8009,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:34" ht="178" customHeight="1">
+    <row r="32" spans="1:34" ht="177.95" customHeight="1">
       <c r="B32" s="11"/>
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
@@ -8045,7 +8089,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="178" customHeight="1">
+    <row r="45" spans="1:29" ht="177.95" customHeight="1">
       <c r="B45" s="11"/>
     </row>
   </sheetData>

--- a/cmip6/models/mpi-esm-1-2-ham/cmip6_hammoz-consortium_mpi-esm-1-2-ham_ocean.xlsx
+++ b/cmip6/models/mpi-esm-1-2-ham/cmip6_hammoz-consortium_mpi-esm-1-2-ham_ocean.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="7. Uplow Boundaries" sheetId="9" r:id="rId9"/>
     <sheet name="8. Boundary Forcing" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="812">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -166,6 +166,9 @@
     <t>cmip6.ocean.key_properties.name</t>
   </si>
   <si>
+    <t>MPIOM1.6.3</t>
+  </si>
+  <si>
     <t>1.1.1.2 *</t>
   </si>
   <si>
@@ -196,6 +199,9 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
+    <t>For a description of the ocean model MPIOM1.6.3 see Mauritsen et al. (2019), Jungclaus et al. (2013) and Marsland et al. (2003).</t>
+  </si>
+  <si>
     <t>1.1.1.4 *</t>
   </si>
   <si>
@@ -214,10 +220,10 @@
     <t>OGCM</t>
   </si>
   <si>
-    <t>Slab ocean</t>
-  </si>
-  <si>
-    <t>Mixed layer ocean</t>
+    <t>slab ocean</t>
+  </si>
+  <si>
+    <t>mixed layer ocean</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -274,7 +280,7 @@
     <t>W-velocity</t>
   </si>
   <si>
-    <t>SSH</t>
+    <t>SSH: Sea Surface Height</t>
   </si>
   <si>
     <t>1.2.1</t>
@@ -430,7 +436,7 @@
     <t>6000 years BP</t>
   </si>
   <si>
-    <t>LGM</t>
+    <t>LGM: Last Glacial Maximum</t>
   </si>
   <si>
     <t>Pliocene</t>
@@ -845,16 +851,16 @@
     <t>S-coordinate</t>
   </si>
   <si>
-    <t>Isopycnic - sigma 0</t>
-  </si>
-  <si>
-    <t>Isopycnic - sigma 2</t>
-  </si>
-  <si>
-    <t>Isopycnic - sigma 4</t>
-  </si>
-  <si>
-    <t>Isopycnic - other</t>
+    <t>Isopycnic - sigma 0: Density referenced to the surface</t>
+  </si>
+  <si>
+    <t>Isopycnic - sigma 2: Density referenced to 2000 m</t>
+  </si>
+  <si>
+    <t>Isopycnic - sigma 4: Density referenced to 4000 m</t>
+  </si>
+  <si>
+    <t>Isopycnic - other: Other density-based coordinate</t>
   </si>
   <si>
     <t>Hybrid / Z+S</t>
@@ -998,133 +1004,136 @@
     <t>cmip6.ocean.timestepping_framework.diurnal_cycle</t>
   </si>
   <si>
+    <t>None: No diurnal cycle in ocean</t>
+  </si>
+  <si>
+    <t>Via coupling: Diurnal cycle via coupling frequency</t>
+  </si>
+  <si>
+    <t>Specific treatment: Specific treament</t>
+  </si>
+  <si>
+    <t>3.2.1</t>
+  </si>
+  <si>
+    <t>Timestepping Framework --&gt; Tracers</t>
+  </si>
+  <si>
+    <t>Properties of tracers time stepping in ocean</t>
+  </si>
+  <si>
+    <t>3.2.1.1 *</t>
+  </si>
+  <si>
+    <t>Tracers time stepping scheme</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.tracers.scheme</t>
+  </si>
+  <si>
+    <t>Leap-frog + Asselin filter: Leap-frog scheme with Asselin filter</t>
+  </si>
+  <si>
+    <t>Leap-frog + Periodic Euler: Leap-frog scheme with Periodic Euler</t>
+  </si>
+  <si>
+    <t>Predictor-corrector: Predictor-corrector scheme</t>
+  </si>
+  <si>
+    <t>Runge-Kutta 2: Runge-Kutta 2 scheme</t>
+  </si>
+  <si>
+    <t>AM3-LF: AM3-LF such as used in ROMS</t>
+  </si>
+  <si>
+    <t>Forward-backward: Forward-backward scheme</t>
+  </si>
+  <si>
+    <t>Forward operator: Forward operator scheme</t>
+  </si>
+  <si>
+    <t>3.2.1.2 *</t>
+  </si>
+  <si>
+    <t>Time Step</t>
+  </si>
+  <si>
+    <t>Tracers time step (in seconds)</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.tracers.time_step</t>
+  </si>
+  <si>
+    <t>3.3.1</t>
+  </si>
+  <si>
+    <t>Timestepping Framework --&gt; Baroclinic Dynamics</t>
+  </si>
+  <si>
+    <t>Baroclinic dynamics in ocean</t>
+  </si>
+  <si>
+    <t>3.3.1.1 *</t>
+  </si>
+  <si>
+    <t>Baroclinic dynamics type</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.baroclinic_dynamics.type</t>
+  </si>
+  <si>
+    <t>Preconditioned conjugate gradient</t>
+  </si>
+  <si>
+    <t>Sub cyling: Sub cycling relative to tracers</t>
+  </si>
+  <si>
+    <t>3.3.1.2 *</t>
+  </si>
+  <si>
+    <t>Baroclinic dynamics scheme</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.baroclinic_dynamics.scheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1.3 </t>
+  </si>
+  <si>
+    <t>Baroclinic time step (in seconds)</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.baroclinic_dynamics.time_step</t>
+  </si>
+  <si>
+    <t>3.4.1</t>
+  </si>
+  <si>
+    <t>Timestepping Framework --&gt; Barotropic</t>
+  </si>
+  <si>
+    <t>Barotropic time stepping in ocean</t>
+  </si>
+  <si>
+    <t>3.4.1.1 *</t>
+  </si>
+  <si>
+    <t>Splitting</t>
+  </si>
+  <si>
+    <t>Time splitting method</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.barotropic.splitting</t>
+  </si>
+  <si>
     <t>None</t>
   </si>
   <si>
-    <t>Via coupling</t>
-  </si>
-  <si>
-    <t>Specific treatment</t>
-  </si>
-  <si>
-    <t>3.2.1</t>
-  </si>
-  <si>
-    <t>Timestepping Framework --&gt; Tracers</t>
-  </si>
-  <si>
-    <t>Properties of tracers time stepping in ocean</t>
-  </si>
-  <si>
-    <t>3.2.1.1 *</t>
-  </si>
-  <si>
-    <t>Tracers time stepping scheme</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.tracers.scheme</t>
-  </si>
-  <si>
-    <t>Leap-frog + Asselin filter</t>
-  </si>
-  <si>
-    <t>Leap-frog + Periodic Euler</t>
-  </si>
-  <si>
-    <t>Predictor-corrector</t>
-  </si>
-  <si>
-    <t>Runge-Kutta 2</t>
-  </si>
-  <si>
-    <t>AM3-LF</t>
-  </si>
-  <si>
-    <t>Forward-backward</t>
-  </si>
-  <si>
-    <t>Forward operator</t>
-  </si>
-  <si>
-    <t>3.2.1.2 *</t>
-  </si>
-  <si>
-    <t>Time Step</t>
-  </si>
-  <si>
-    <t>Tracers time step (in seconds)</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.tracers.time_step</t>
-  </si>
-  <si>
-    <t>3.3.1</t>
-  </si>
-  <si>
-    <t>Timestepping Framework --&gt; Baroclinic Dynamics</t>
-  </si>
-  <si>
-    <t>Baroclinic dynamics in ocean</t>
-  </si>
-  <si>
-    <t>3.3.1.1 *</t>
-  </si>
-  <si>
-    <t>Baroclinic dynamics type</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.baroclinic_dynamics.type</t>
-  </si>
-  <si>
-    <t>Preconditioned conjugate gradient</t>
-  </si>
-  <si>
-    <t>Sub cyling</t>
-  </si>
-  <si>
-    <t>3.3.1.2 *</t>
-  </si>
-  <si>
-    <t>Baroclinic dynamics scheme</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.baroclinic_dynamics.scheme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1.3 </t>
-  </si>
-  <si>
-    <t>Baroclinic time step (in seconds)</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.baroclinic_dynamics.time_step</t>
-  </si>
-  <si>
-    <t>3.4.1</t>
-  </si>
-  <si>
-    <t>Timestepping Framework --&gt; Barotropic</t>
-  </si>
-  <si>
-    <t>Barotropic time stepping in ocean</t>
-  </si>
-  <si>
-    <t>3.4.1.1 *</t>
-  </si>
-  <si>
-    <t>Splitting</t>
-  </si>
-  <si>
-    <t>Time splitting method</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.barotropic.splitting</t>
-  </si>
-  <si>
-    <t>Split explicit</t>
-  </si>
-  <si>
-    <t>Implicit</t>
+    <t>split explicit</t>
+  </si>
+  <si>
+    <t>implicit</t>
   </si>
   <si>
     <t xml:space="preserve">3.4.1.2 </t>
@@ -1385,10 +1394,13 @@
     <t>cmip6.ocean.lateral_physics.scheme</t>
   </si>
   <si>
-    <t>Eddy active</t>
-  </si>
-  <si>
-    <t>Eddy admitting</t>
+    <t>None: No transient eddies in ocean</t>
+  </si>
+  <si>
+    <t>Eddy active: Full resolution of eddies</t>
+  </si>
+  <si>
+    <t>Eddy admitting: Some eddy activity permitted by resolution</t>
   </si>
   <si>
     <t>5.1.2</t>
@@ -1436,10 +1448,10 @@
     <t>cmip6.ocean.lateral_physics.momentum.operator.order</t>
   </si>
   <si>
-    <t>Harmonic</t>
-  </si>
-  <si>
-    <t>Bi-harmonic</t>
+    <t>Harmonic: Second order</t>
+  </si>
+  <si>
+    <t>Bi-harmonic: Fourth order</t>
   </si>
   <si>
     <t>5.1.2.3 *</t>
@@ -1454,10 +1466,10 @@
     <t>cmip6.ocean.lateral_physics.momentum.operator.discretisation</t>
   </si>
   <si>
-    <t>Second order</t>
-  </si>
-  <si>
-    <t>Higher order</t>
+    <t>Second order: Second order</t>
+  </si>
+  <si>
+    <t>Higher order: Higher order</t>
   </si>
   <si>
     <t>Flux limiter</t>
@@ -1679,7 +1691,7 @@
     <t>cmip6.ocean.lateral_physics.tracers.eddy_induced_velocity.type</t>
   </si>
   <si>
-    <t>GM</t>
+    <t>GM: Gent &amp; McWilliams</t>
   </si>
   <si>
     <t xml:space="preserve">5.2.4.2 </t>
@@ -2451,27 +2463,12 @@
   </si>
   <si>
     <t>cmip6.ocean.boundary_forcing.tracers.fresh_water_forcing.forced_mode_restoring</t>
-  </si>
-  <si>
-    <t>MPIOM1.6.3</t>
-  </si>
-  <si>
-    <t>For a description of the ocean model MPIOM1.6.3 see Mauritsen et al. (2019), Jungclaus et al. (2013) and Marsland et al. (2003).</t>
-  </si>
-  <si>
-    <t>Mauritsen_2019</t>
-  </si>
-  <si>
-    <t>Marsland_2003</t>
-  </si>
-  <si>
-    <t>Jungclaus_2013</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="15">
     <font>
       <sz val="11"/>
@@ -2668,11 +2665,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2751,7 +2743,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2786,7 +2777,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2962,10 +2952,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2974,12 +2964,12 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="33.75">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2987,7 +2977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2995,7 +2985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="20.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -3003,7 +2993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -3011,7 +3001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -3019,42 +3009,42 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20.25">
+    <row r="9" spans="1:2">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="20.25">
+    <row r="10" spans="1:2">
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="20.25">
+    <row r="11" spans="1:2">
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="20.25">
+    <row r="12" spans="1:2">
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="20.25">
+    <row r="13" spans="1:2">
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="20.25">
+    <row r="14" spans="1:2">
       <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="20.25">
+    <row r="15" spans="1:2">
       <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18">
+    <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -3062,7 +3052,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18">
+    <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -3070,7 +3060,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18">
+    <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
@@ -3078,7 +3068,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18">
+    <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -3086,13 +3076,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="20.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:2" ht="20.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
@@ -3108,8 +3098,8 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3123,20 +3113,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -3147,10 +3137,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3158,10 +3148,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3169,26 +3159,26 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="177.95" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3196,10 +3186,10 @@
         <v>44</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3207,10 +3197,10 @@
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
@@ -3218,26 +3208,26 @@
         <v>44</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="177.95" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="178" customHeight="1">
       <c r="B20" s="11"/>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -3245,26 +3235,26 @@
         <v>44</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
       <c r="B24" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="177.95" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="178" customHeight="1">
       <c r="B25" s="11"/>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
@@ -3272,26 +3262,26 @@
         <v>44</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
       <c r="B29" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="177.95" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="178" customHeight="1">
       <c r="B30" s="11"/>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="24" customHeight="1">
@@ -3299,26 +3289,26 @@
         <v>44</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="24" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:32" ht="177.95" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" ht="178" customHeight="1">
       <c r="B35" s="11"/>
     </row>
     <row r="37" spans="1:32" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="24" customHeight="1">
@@ -3326,184 +3316,184 @@
         <v>44</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="24" customHeight="1">
       <c r="B39" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:32" ht="177.95" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" ht="178" customHeight="1">
       <c r="B40" s="11"/>
     </row>
     <row r="43" spans="1:32" ht="24" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
     </row>
     <row r="44" spans="1:32" ht="24" customHeight="1">
       <c r="B44" s="13" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:32" ht="24" customHeight="1">
       <c r="A47" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
     </row>
     <row r="48" spans="1:32" ht="24" customHeight="1">
       <c r="B48" s="11"/>
       <c r="AA48" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AB48" s="6" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="AC48" s="6" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="AD48" s="6" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="AE48" s="6" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="AF48" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="A55" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
       <c r="B56" s="11"/>
       <c r="AA56" s="6" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="AC56" s="6" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="AD56" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
     </row>
     <row r="60" spans="1:30" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
       <c r="A63" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="B64" s="11"/>
       <c r="AA64" s="6" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="AB64" s="6" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="AC64" s="6" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="AD64" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="A67" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
@@ -3511,10 +3501,10 @@
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
@@ -3522,26 +3512,26 @@
         <v>44</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="B72" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="177.95" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="178" customHeight="1">
       <c r="B73" s="11"/>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
@@ -3549,15 +3539,15 @@
         <v>44</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="B77" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
@@ -3565,88 +3555,88 @@
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
       <c r="A81" s="12" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
       <c r="B82" s="13" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
     </row>
     <row r="84" spans="1:30" ht="24" customHeight="1">
       <c r="A84" s="9" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
     </row>
     <row r="85" spans="1:30" ht="24" customHeight="1">
       <c r="A85" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
     </row>
     <row r="86" spans="1:30" ht="24" customHeight="1">
       <c r="B86" s="11"/>
       <c r="AA86" s="6" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="AB86" s="6" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="AC86" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="88" spans="1:30" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
       <c r="A89" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="24" customHeight="1">
       <c r="B90" s="11"/>
       <c r="AA90" s="6" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="AB90" s="6" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="AC90" s="6" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="AD90" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:30" ht="24" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
@@ -3654,10 +3644,10 @@
         <v>44</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
@@ -3689,12 +3679,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3703,7 +3691,7 @@
     <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30">
+    <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
         <v>28</v>
       </c>
@@ -3714,7 +3702,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18">
+    <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
         <v>30</v>
       </c>
@@ -3730,7 +3718,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75">
+    <row r="8" spans="1:2">
       <c r="A8" s="10" t="s">
         <v>33</v>
       </c>
@@ -3738,11 +3726,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18">
+    <row r="9" spans="1:2">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
     </row>
-    <row r="12" spans="1:2" ht="18">
+    <row r="12" spans="1:2">
       <c r="A12" s="9" t="s">
         <v>35</v>
       </c>
@@ -3758,7 +3746,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75">
+    <row r="16" spans="1:2">
       <c r="A16" s="10" t="s">
         <v>33</v>
       </c>
@@ -3766,30 +3754,16 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18">
-      <c r="A17" s="11" t="s">
-        <v>810</v>
-      </c>
+    <row r="17" spans="1:2">
+      <c r="A17" s="11"/>
       <c r="B17" s="11"/>
-    </row>
-    <row r="18" spans="1:2" ht="18">
-      <c r="A18" s="11" t="s">
-        <v>812</v>
-      </c>
-      <c r="B18" s="11"/>
-    </row>
-    <row r="19" spans="1:2" ht="18">
-      <c r="A19" s="11" t="s">
-        <v>811</v>
-      </c>
-      <c r="B19" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
       <formula1>"Top Level,Key Properties,Grid,Timestepping Framework,Advection,Lateral Physics,Vertical Physics,Uplow Boundaries,Boundary Forcing"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3802,1238 +3776,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH198"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="24" customHeight="1">
-      <c r="B11" s="11"/>
-    </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="177.95" customHeight="1">
-      <c r="B16" s="11" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" ht="24" customHeight="1">
-      <c r="A19" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
-      <c r="AA20" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB20" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD20" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" ht="24" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" ht="24" customHeight="1">
-      <c r="A23" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34" ht="24" customHeight="1">
-      <c r="B24" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" ht="24" customHeight="1">
-      <c r="B25" s="11"/>
-      <c r="AA25" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB25" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC25" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD25" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34" ht="24" customHeight="1">
-      <c r="A27" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34" ht="24" customHeight="1">
-      <c r="A28" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34" ht="24" customHeight="1">
-      <c r="B29" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:34" ht="24" customHeight="1">
-      <c r="B30" s="11"/>
-      <c r="AA30" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB30" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC30" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD30" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE30" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF30" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG30" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH30" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" ht="24" customHeight="1">
-      <c r="A33" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:32" ht="24" customHeight="1">
-      <c r="B34" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:32" ht="24" customHeight="1">
-      <c r="A36" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:32" ht="24" customHeight="1">
-      <c r="A37" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:32" ht="24" customHeight="1">
-      <c r="B38" s="11"/>
-      <c r="AA38" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB38" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC38" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD38" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE38" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF38" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:32" ht="24" customHeight="1">
-      <c r="A40" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="1:32" ht="24" customHeight="1">
-      <c r="A41" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:32" ht="24" customHeight="1">
-      <c r="B42" s="11"/>
-      <c r="AA42" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB42" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:32" ht="24" customHeight="1">
-      <c r="A44" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:32" ht="24" customHeight="1">
-      <c r="A45" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="46" spans="1:32" ht="24" customHeight="1">
-      <c r="B46" s="11"/>
-      <c r="AA46" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB46" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" spans="1:32" ht="24" customHeight="1">
-      <c r="A48" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28" ht="24" customHeight="1">
-      <c r="A49" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="1:28" ht="24" customHeight="1">
-      <c r="B50" s="11"/>
-      <c r="AA50" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB50" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28" ht="24" customHeight="1">
-      <c r="A52" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="53" spans="1:28" ht="24" customHeight="1">
-      <c r="A53" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="54" spans="1:28" ht="24" customHeight="1">
-      <c r="B54" s="11"/>
-      <c r="AA54" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB54" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28" ht="24" customHeight="1">
-      <c r="A56" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="57" spans="1:28" ht="24" customHeight="1">
-      <c r="A57" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="58" spans="1:28" ht="24" customHeight="1">
-      <c r="B58" s="11"/>
-    </row>
-    <row r="60" spans="1:28" ht="24" customHeight="1">
-      <c r="A60" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="61" spans="1:28" ht="24" customHeight="1">
-      <c r="A61" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="62" spans="1:28" ht="24" customHeight="1">
-      <c r="B62" s="11"/>
-    </row>
-    <row r="65" spans="1:32" ht="24" customHeight="1">
-      <c r="A65" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="66" spans="1:32" ht="24" customHeight="1">
-      <c r="B66" s="13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="68" spans="1:32" ht="24" customHeight="1">
-      <c r="A68" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="69" spans="1:32" ht="24" customHeight="1">
-      <c r="A69" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="70" spans="1:32" ht="24" customHeight="1">
-      <c r="B70" s="11"/>
-      <c r="AA70" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB70" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC70" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD70" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE70" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF70" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="72" spans="1:32" ht="24" customHeight="1">
-      <c r="A72" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="73" spans="1:32" ht="24" customHeight="1">
-      <c r="A73" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="74" spans="1:32" ht="24" customHeight="1">
-      <c r="B74" s="11"/>
-    </row>
-    <row r="76" spans="1:32" ht="24" customHeight="1">
-      <c r="A76" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="77" spans="1:32" ht="24" customHeight="1">
-      <c r="A77" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="78" spans="1:32" ht="24" customHeight="1">
-      <c r="B78" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="79" spans="1:32" ht="177.95" customHeight="1">
-      <c r="B79" s="11"/>
-    </row>
-    <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="A81" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="24" customHeight="1">
-      <c r="A82" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="24" customHeight="1">
-      <c r="B83" s="11"/>
-    </row>
-    <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="A86" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="B87" s="13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="24" customHeight="1">
-      <c r="A89" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="B91" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="177.95" customHeight="1">
-      <c r="B92" s="11"/>
-    </row>
-    <row r="94" spans="1:3" ht="24" customHeight="1">
-      <c r="A94" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="A95" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="B96" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="177.95" customHeight="1">
-      <c r="B97" s="11"/>
-    </row>
-    <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="A100" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="B101" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="A104" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="B105" s="11"/>
-    </row>
-    <row r="107" spans="1:3" ht="24" customHeight="1">
-      <c r="A107" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="A108" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="24" customHeight="1">
-      <c r="B109" s="11"/>
-    </row>
-    <row r="111" spans="1:3" ht="24" customHeight="1">
-      <c r="A111" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="24" customHeight="1">
-      <c r="A112" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="24" customHeight="1">
-      <c r="B113" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="24" customHeight="1">
-      <c r="B114" s="11"/>
-    </row>
-    <row r="117" spans="1:3" ht="24" customHeight="1">
-      <c r="A117" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="B117" s="12" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="24" customHeight="1">
-      <c r="B118" s="13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="A120" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="A121" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="24" customHeight="1">
-      <c r="B122" s="11"/>
-    </row>
-    <row r="124" spans="1:3" ht="24" customHeight="1">
-      <c r="A124" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="24" customHeight="1">
-      <c r="A125" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B125" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="24" customHeight="1">
-      <c r="B126" s="11"/>
-    </row>
-    <row r="128" spans="1:3" ht="24" customHeight="1">
-      <c r="A128" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="24" customHeight="1">
-      <c r="A129" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B129" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="24" customHeight="1">
-      <c r="B130" s="11"/>
-    </row>
-    <row r="132" spans="1:3" ht="24" customHeight="1">
-      <c r="A132" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="24" customHeight="1">
-      <c r="A133" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="24" customHeight="1">
-      <c r="B134" s="11"/>
-    </row>
-    <row r="136" spans="1:3" ht="24" customHeight="1">
-      <c r="A136" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="B136" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="24" customHeight="1">
-      <c r="A137" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="B137" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="24" customHeight="1">
-      <c r="B138" s="11"/>
-    </row>
-    <row r="140" spans="1:3" ht="24" customHeight="1">
-      <c r="A140" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="24" customHeight="1">
-      <c r="A141" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="24" customHeight="1">
-      <c r="B142" s="11"/>
-    </row>
-    <row r="144" spans="1:3" ht="24" customHeight="1">
-      <c r="A144" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="24" customHeight="1">
-      <c r="A145" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B145" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="C145" s="10" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="24" customHeight="1">
-      <c r="B146" s="11"/>
-    </row>
-    <row r="149" spans="1:3" ht="24" customHeight="1">
-      <c r="A149" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B149" s="12" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="24" customHeight="1">
-      <c r="B150" s="13" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="24" customHeight="1">
-      <c r="A152" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="B152" s="9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="24" customHeight="1">
-      <c r="A153" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B153" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="24" customHeight="1">
-      <c r="B154" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="177.95" customHeight="1">
-      <c r="B155" s="11"/>
-    </row>
-    <row r="157" spans="1:3" ht="24" customHeight="1">
-      <c r="A157" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="24" customHeight="1">
-      <c r="A158" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B158" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="24" customHeight="1">
-      <c r="B159" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="24" customHeight="1">
-      <c r="B160" s="11"/>
-    </row>
-    <row r="162" spans="1:3" ht="24" customHeight="1">
-      <c r="A162" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="24" customHeight="1">
-      <c r="A163" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B163" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="24" customHeight="1">
-      <c r="B164" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="24" customHeight="1">
-      <c r="B165" s="11"/>
-    </row>
-    <row r="167" spans="1:3" ht="24" customHeight="1">
-      <c r="A167" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B167" s="9" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="24" customHeight="1">
-      <c r="A168" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B168" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="C168" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="24" customHeight="1">
-      <c r="B169" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="24" customHeight="1">
-      <c r="B170" s="11"/>
-    </row>
-    <row r="173" spans="1:3" ht="24" customHeight="1">
-      <c r="A173" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="B173" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="24" customHeight="1">
-      <c r="B174" s="13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="24" customHeight="1">
-      <c r="A176" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B176" s="9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="177" spans="1:32" ht="24" customHeight="1">
-      <c r="A177" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B177" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C177" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="178" spans="1:32" ht="24" customHeight="1">
-      <c r="B178" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="179" spans="1:32" ht="177.95" customHeight="1">
-      <c r="B179" s="11"/>
-    </row>
-    <row r="181" spans="1:32" ht="24" customHeight="1">
-      <c r="A181" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="B181" s="9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="182" spans="1:32" ht="24" customHeight="1">
-      <c r="A182" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B182" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C182" s="10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="183" spans="1:32" ht="24" customHeight="1">
-      <c r="B183" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="184" spans="1:32" ht="24" customHeight="1">
-      <c r="B184" s="11"/>
-      <c r="AA184" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="AB184" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="AC184" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="AD184" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="AE184" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="AF184" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="186" spans="1:32" ht="24" customHeight="1">
-      <c r="A186" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="B186" s="9" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="187" spans="1:32" ht="24" customHeight="1">
-      <c r="A187" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B187" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="C187" s="10" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="188" spans="1:32" ht="24" customHeight="1">
-      <c r="B188" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="189" spans="1:32" ht="24" customHeight="1">
-      <c r="B189" s="11"/>
-    </row>
-    <row r="191" spans="1:32" ht="24" customHeight="1">
-      <c r="A191" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B191" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="192" spans="1:32" ht="24" customHeight="1">
-      <c r="A192" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B192" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="C192" s="10" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="24" customHeight="1">
-      <c r="B193" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="24" customHeight="1">
-      <c r="B194" s="11"/>
-    </row>
-    <row r="196" spans="1:3" ht="24" customHeight="1">
-      <c r="A196" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="B196" s="9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="24" customHeight="1">
-      <c r="A197" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B197" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C197" s="10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="24" customHeight="1">
-      <c r="B198" s="11"/>
-    </row>
-  </sheetData>
-  <dataValidations count="18">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
-      <formula1>AA20:AD20</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
-      <formula1>AA25:AD25</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
-      <formula1>AA30:AH30</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
-      <formula1>AA38:AF38</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
-      <formula1>AA42:AB42</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46">
-      <formula1>AA46:AB46</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50">
-      <formula1>AA50:AB50</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54">
-      <formula1>AA54:AB54</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B58">
-      <formula1>-1000000</formula1>
-      <formula2>1000000</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62">
-      <formula1>-1000000</formula1>
-      <formula2>1000000</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B70">
-      <formula1>AA70:AF70</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B134">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B138">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B142">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B146">
-      <formula1>-1000000</formula1>
-      <formula2>1000000</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B184">
-      <formula1>AA184:AF184</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B198">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD198"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5047,20 +3791,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>253</v>
+        <v>39</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>254</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>255</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>256</v>
+        <v>42</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -5071,21 +3815,23 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>257</v>
+        <v>45</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>258</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>259</v>
+        <v>48</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -5093,114 +3839,1340 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>260</v>
+        <v>50</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>261</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="24" customHeight="1">
+      <c r="B11" s="11"/>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1">
+      <c r="A13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1">
+      <c r="A14" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="177.95" customHeight="1">
+    <row r="15" spans="1:3" ht="24" customHeight="1">
+      <c r="B15" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="178" customHeight="1">
+      <c r="B16" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="24" customHeight="1">
+      <c r="A18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="24" customHeight="1">
+      <c r="A19" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" ht="24" customHeight="1">
+      <c r="B20" s="11"/>
+      <c r="AA20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC20" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD20" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" ht="24" customHeight="1">
+      <c r="A22" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" ht="24" customHeight="1">
+      <c r="A23" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" ht="24" customHeight="1">
+      <c r="B24" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" ht="24" customHeight="1">
+      <c r="B25" s="11"/>
+      <c r="AA25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" ht="24" customHeight="1">
+      <c r="A27" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" ht="24" customHeight="1">
+      <c r="A28" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" ht="24" customHeight="1">
+      <c r="B29" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" ht="24" customHeight="1">
+      <c r="B30" s="11"/>
+      <c r="AA30" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB30" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC30" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD30" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE30" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF30" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG30" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH30" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" ht="24" customHeight="1">
+      <c r="A33" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" ht="24" customHeight="1">
+      <c r="B34" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" ht="24" customHeight="1">
+      <c r="A36" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" ht="24" customHeight="1">
+      <c r="A37" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" ht="24" customHeight="1">
+      <c r="B38" s="11"/>
+      <c r="AA38" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB38" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC38" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD38" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE38" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF38" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" ht="24" customHeight="1">
+      <c r="A40" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" ht="24" customHeight="1">
+      <c r="A41" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" ht="24" customHeight="1">
+      <c r="B42" s="11"/>
+      <c r="AA42" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB42" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" ht="24" customHeight="1">
+      <c r="A44" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" ht="24" customHeight="1">
+      <c r="A45" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" ht="24" customHeight="1">
+      <c r="B46" s="11"/>
+      <c r="AA46" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB46" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" ht="24" customHeight="1">
+      <c r="A48" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" ht="24" customHeight="1">
+      <c r="A49" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" ht="24" customHeight="1">
+      <c r="B50" s="11"/>
+      <c r="AA50" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB50" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" ht="24" customHeight="1">
+      <c r="A52" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" ht="24" customHeight="1">
+      <c r="A53" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" ht="24" customHeight="1">
+      <c r="B54" s="11"/>
+      <c r="AA54" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB54" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" ht="24" customHeight="1">
+      <c r="A56" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" ht="24" customHeight="1">
+      <c r="A57" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" ht="24" customHeight="1">
+      <c r="B58" s="11"/>
+    </row>
+    <row r="60" spans="1:28" ht="24" customHeight="1">
+      <c r="A60" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" ht="24" customHeight="1">
+      <c r="A61" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" ht="24" customHeight="1">
+      <c r="B62" s="11"/>
+    </row>
+    <row r="65" spans="1:32" ht="24" customHeight="1">
+      <c r="A65" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32" ht="24" customHeight="1">
+      <c r="B66" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:32" ht="24" customHeight="1">
+      <c r="A68" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:32" ht="24" customHeight="1">
+      <c r="A69" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" spans="1:32" ht="24" customHeight="1">
+      <c r="B70" s="11"/>
+      <c r="AA70" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB70" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC70" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD70" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE70" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF70" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:32" ht="24" customHeight="1">
+      <c r="A72" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="1:32" ht="24" customHeight="1">
+      <c r="A73" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:32" ht="24" customHeight="1">
+      <c r="B74" s="11"/>
+    </row>
+    <row r="76" spans="1:32" ht="24" customHeight="1">
+      <c r="A76" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="77" spans="1:32" ht="24" customHeight="1">
+      <c r="A77" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:32" ht="24" customHeight="1">
+      <c r="B78" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="1:32" ht="178" customHeight="1">
+      <c r="B79" s="11"/>
+    </row>
+    <row r="81" spans="1:3" ht="24" customHeight="1">
+      <c r="A81" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="24" customHeight="1">
+      <c r="A82" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="24" customHeight="1">
+      <c r="B83" s="11"/>
+    </row>
+    <row r="86" spans="1:3" ht="24" customHeight="1">
+      <c r="A86" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="24" customHeight="1">
+      <c r="B87" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="24" customHeight="1">
+      <c r="A89" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="24" customHeight="1">
+      <c r="A90" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="24" customHeight="1">
+      <c r="B91" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="178" customHeight="1">
+      <c r="B92" s="11"/>
+    </row>
+    <row r="94" spans="1:3" ht="24" customHeight="1">
+      <c r="A94" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="24" customHeight="1">
+      <c r="A95" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="24" customHeight="1">
+      <c r="B96" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="178" customHeight="1">
+      <c r="B97" s="11"/>
+    </row>
+    <row r="100" spans="1:3" ht="24" customHeight="1">
+      <c r="A100" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="24" customHeight="1">
+      <c r="B101" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="24" customHeight="1">
+      <c r="A103" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="24" customHeight="1">
+      <c r="A104" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="24" customHeight="1">
+      <c r="B105" s="11"/>
+    </row>
+    <row r="107" spans="1:3" ht="24" customHeight="1">
+      <c r="A107" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="24" customHeight="1">
+      <c r="A108" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="24" customHeight="1">
+      <c r="B109" s="11"/>
+    </row>
+    <row r="111" spans="1:3" ht="24" customHeight="1">
+      <c r="A111" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="24" customHeight="1">
+      <c r="A112" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="24" customHeight="1">
+      <c r="B113" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="24" customHeight="1">
+      <c r="B114" s="11"/>
+    </row>
+    <row r="117" spans="1:3" ht="24" customHeight="1">
+      <c r="A117" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="24" customHeight="1">
+      <c r="B118" s="13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="24" customHeight="1">
+      <c r="A120" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="24" customHeight="1">
+      <c r="A121" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="24" customHeight="1">
+      <c r="B122" s="11"/>
+    </row>
+    <row r="124" spans="1:3" ht="24" customHeight="1">
+      <c r="A124" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="24" customHeight="1">
+      <c r="A125" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="24" customHeight="1">
+      <c r="B126" s="11"/>
+    </row>
+    <row r="128" spans="1:3" ht="24" customHeight="1">
+      <c r="A128" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="24" customHeight="1">
+      <c r="A129" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="24" customHeight="1">
+      <c r="B130" s="11"/>
+    </row>
+    <row r="132" spans="1:3" ht="24" customHeight="1">
+      <c r="A132" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="24" customHeight="1">
+      <c r="A133" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="24" customHeight="1">
+      <c r="B134" s="11"/>
+    </row>
+    <row r="136" spans="1:3" ht="24" customHeight="1">
+      <c r="A136" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="24" customHeight="1">
+      <c r="A137" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="24" customHeight="1">
+      <c r="B138" s="11"/>
+    </row>
+    <row r="140" spans="1:3" ht="24" customHeight="1">
+      <c r="A140" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="24" customHeight="1">
+      <c r="A141" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="24" customHeight="1">
+      <c r="B142" s="11"/>
+    </row>
+    <row r="144" spans="1:3" ht="24" customHeight="1">
+      <c r="A144" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="24" customHeight="1">
+      <c r="A145" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="24" customHeight="1">
+      <c r="B146" s="11"/>
+    </row>
+    <row r="149" spans="1:3" ht="24" customHeight="1">
+      <c r="A149" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="24" customHeight="1">
+      <c r="B150" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="24" customHeight="1">
+      <c r="A152" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="24" customHeight="1">
+      <c r="A153" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="24" customHeight="1">
+      <c r="B154" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="178" customHeight="1">
+      <c r="B155" s="11"/>
+    </row>
+    <row r="157" spans="1:3" ht="24" customHeight="1">
+      <c r="A157" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="24" customHeight="1">
+      <c r="A158" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="24" customHeight="1">
+      <c r="B159" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="24" customHeight="1">
+      <c r="B160" s="11"/>
+    </row>
+    <row r="162" spans="1:3" ht="24" customHeight="1">
+      <c r="A162" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="24" customHeight="1">
+      <c r="A163" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="24" customHeight="1">
+      <c r="B164" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="24" customHeight="1">
+      <c r="B165" s="11"/>
+    </row>
+    <row r="167" spans="1:3" ht="24" customHeight="1">
+      <c r="A167" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="24" customHeight="1">
+      <c r="A168" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="24" customHeight="1">
+      <c r="B169" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="24" customHeight="1">
+      <c r="B170" s="11"/>
+    </row>
+    <row r="173" spans="1:3" ht="24" customHeight="1">
+      <c r="A173" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="B173" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="24" customHeight="1">
+      <c r="B174" s="13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="24" customHeight="1">
+      <c r="A176" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="177" spans="1:32" ht="24" customHeight="1">
+      <c r="A177" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B177" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="178" spans="1:32" ht="24" customHeight="1">
+      <c r="B178" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="179" spans="1:32" ht="178" customHeight="1">
+      <c r="B179" s="11"/>
+    </row>
+    <row r="181" spans="1:32" ht="24" customHeight="1">
+      <c r="A181" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="182" spans="1:32" ht="24" customHeight="1">
+      <c r="A182" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B182" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C182" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="183" spans="1:32" ht="24" customHeight="1">
+      <c r="B183" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="184" spans="1:32" ht="24" customHeight="1">
+      <c r="B184" s="11"/>
+      <c r="AA184" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB184" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC184" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD184" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AE184" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AF184" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="186" spans="1:32" ht="24" customHeight="1">
+      <c r="A186" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="187" spans="1:32" ht="24" customHeight="1">
+      <c r="A187" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B187" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C187" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="188" spans="1:32" ht="24" customHeight="1">
+      <c r="B188" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="189" spans="1:32" ht="24" customHeight="1">
+      <c r="B189" s="11"/>
+    </row>
+    <row r="191" spans="1:32" ht="24" customHeight="1">
+      <c r="A191" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="192" spans="1:32" ht="24" customHeight="1">
+      <c r="A192" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C192" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="24" customHeight="1">
+      <c r="B193" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="24" customHeight="1">
+      <c r="B194" s="11"/>
+    </row>
+    <row r="196" spans="1:3" ht="24" customHeight="1">
+      <c r="A196" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="24" customHeight="1">
+      <c r="A197" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B197" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C197" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="24" customHeight="1">
+      <c r="B198" s="11"/>
+    </row>
+  </sheetData>
+  <dataValidations count="18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+      <formula1>AA20:AD20</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+      <formula1>AA25:AD25</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
+      <formula1>AA30:AH30</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
+      <formula1>AA38:AF38</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
+      <formula1>AA42:AB42</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46">
+      <formula1>AA46:AB46</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50">
+      <formula1>AA50:AB50</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54">
+      <formula1>AA54:AB54</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B58">
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62">
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B70">
+      <formula1>AA70:AF70</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B134">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B138">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B142">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B146">
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B184">
+      <formula1>AA184:AF184</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B198">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="24" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1">
+      <c r="B2" s="13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="24" customHeight="1">
+      <c r="A5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="24" customHeight="1">
+      <c r="A9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1">
+      <c r="B10" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:40" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:40" ht="24" customHeight="1">
       <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AF19" s="6" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AH19" s="6" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AI19" s="6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AJ19" s="6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AK19" s="6" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AL19" s="6" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AM19" s="6" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AN19" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:40" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:40" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:40" ht="24" customHeight="1">
@@ -5208,123 +5180,123 @@
     </row>
     <row r="26" spans="1:40" ht="24" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:40" ht="24" customHeight="1">
       <c r="B27" s="13" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:40" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:40" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:40" ht="24" customHeight="1">
       <c r="B31" s="11"/>
       <c r="AA31" s="6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:31" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="1:31" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:31" ht="24" customHeight="1">
       <c r="B35" s="11"/>
       <c r="AA35" s="6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AD35" s="6" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AE35" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:31" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:31" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="24" customHeight="1">
       <c r="B39" s="11"/>
       <c r="AA39" s="6" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AE39" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -5350,8 +5322,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5365,20 +5337,20 @@
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -5389,10 +5361,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
@@ -5400,10 +5372,10 @@
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="24" customHeight="1">
@@ -5411,130 +5383,130 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" ht="177.95" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
       <c r="B23" s="11"/>
       <c r="AA23" s="6" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AF23" s="6" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AG23" s="6" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AH23" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:34" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:34" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="24" customHeight="1">
@@ -5542,111 +5514,111 @@
     </row>
     <row r="30" spans="1:34" ht="24" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="24" customHeight="1">
       <c r="B31" s="13" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="33" spans="1:34" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:34" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35" spans="1:34" ht="24" customHeight="1">
       <c r="B35" s="11"/>
       <c r="AA35" s="6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:34" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:34" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="39" spans="1:34" ht="24" customHeight="1">
       <c r="B39" s="11"/>
       <c r="AA39" s="6" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AE39" s="6" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AF39" s="6" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AG39" s="6" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AH39" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:34" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="42" spans="1:34" ht="24" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="43" spans="1:34" ht="24" customHeight="1">
@@ -5654,68 +5626,68 @@
     </row>
     <row r="46" spans="1:34" ht="24" customHeight="1">
       <c r="A46" s="12" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="47" spans="1:34" ht="24" customHeight="1">
       <c r="B47" s="13" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="AD51" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
@@ -5723,23 +5695,23 @@
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="B59" s="13" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
@@ -5747,10 +5719,10 @@
         <v>44</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
@@ -5788,8 +5760,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5803,20 +5775,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -5827,10 +5799,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5838,10 +5810,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -5849,67 +5821,67 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="177.95" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="24" customHeight="1">
       <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="24" customHeight="1">
@@ -5917,10 +5889,10 @@
         <v>44</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="24" customHeight="1">
@@ -5928,21 +5900,21 @@
     </row>
     <row r="25" spans="1:28" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="24" customHeight="1">
@@ -5950,34 +5922,34 @@
     </row>
     <row r="30" spans="1:28" ht="24" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="24" customHeight="1">
       <c r="B31" s="13" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -5985,21 +5957,21 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
@@ -6007,21 +5979,21 @@
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -6029,7 +6001,7 @@
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>43</v>
@@ -6040,10 +6012,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
@@ -6051,21 +6023,21 @@
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="24" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="51" spans="1:31" ht="24" customHeight="1">
@@ -6076,27 +6048,27 @@
     <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="B52" s="11"/>
       <c r="AA52" s="6" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AB52" s="6" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="AC52" s="6" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="AE52" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:31" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="55" spans="1:31" ht="24" customHeight="1">
@@ -6104,10 +6076,10 @@
         <v>44</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="24" customHeight="1">
@@ -6115,20 +6087,20 @@
     </row>
     <row r="59" spans="1:31" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="60" spans="1:31" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>43</v>
@@ -6139,10 +6111,10 @@
         <v>44</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
@@ -6150,21 +6122,21 @@
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="A67" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
@@ -6185,8 +6157,8 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43">
-      <formula1>-1000000</formula1>
-      <formula2>1000000</formula2>
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52">
       <formula1>AA52:AE52</formula1>
@@ -6200,8 +6172,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF127"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD127"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6215,20 +6187,20 @@
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -6239,10 +6211,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
@@ -6250,10 +6222,10 @@
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="24" customHeight="1">
@@ -6261,233 +6233,233 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="177.95" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>323</v>
+        <v>455</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="24" customHeight="1">
       <c r="B23" s="11"/>
       <c r="AA23" s="6" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="AF23" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:32" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="24" customHeight="1">
       <c r="B27" s="11"/>
       <c r="AA27" s="6" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:32" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="24" customHeight="1">
       <c r="B31" s="11"/>
       <c r="AA31" s="6" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:30" ht="24" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="24" customHeight="1">
       <c r="B35" s="13" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="24" customHeight="1">
       <c r="B39" s="11"/>
       <c r="AA39" s="6" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:30" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="24" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="24" customHeight="1">
@@ -6495,10 +6467,10 @@
     </row>
     <row r="45" spans="1:30" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="46" spans="1:30" ht="24" customHeight="1">
@@ -6506,10 +6478,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="24" customHeight="1">
@@ -6517,10 +6489,10 @@
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
@@ -6528,10 +6500,10 @@
         <v>44</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
@@ -6539,21 +6511,21 @@
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -6561,34 +6533,34 @@
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="B59" s="13" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
@@ -6596,21 +6568,21 @@
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
       <c r="A66" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="67" spans="1:32" ht="24" customHeight="1">
@@ -6618,186 +6590,186 @@
     </row>
     <row r="70" spans="1:32" ht="24" customHeight="1">
       <c r="A70" s="12" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="71" spans="1:32" ht="24" customHeight="1">
       <c r="B71" s="13" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="73" spans="1:32" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="74" spans="1:32" ht="24" customHeight="1">
       <c r="A74" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="24" customHeight="1">
       <c r="B75" s="11"/>
       <c r="AA75" s="6" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="AB75" s="6" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="AC75" s="6" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="AD75" s="6" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="AE75" s="6" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="AF75" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:32" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="78" spans="1:32" ht="24" customHeight="1">
       <c r="A78" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="79" spans="1:32" ht="24" customHeight="1">
       <c r="B79" s="11"/>
       <c r="AA79" s="6" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="AB79" s="6" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="AC79" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
       <c r="A82" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="83" spans="1:30" ht="24" customHeight="1">
       <c r="B83" s="11"/>
       <c r="AA83" s="6" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="AB83" s="6" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="AC83" s="6" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="AD83" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:30" ht="24" customHeight="1">
       <c r="A86" s="12" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="87" spans="1:30" ht="24" customHeight="1">
       <c r="B87" s="13" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="24" customHeight="1">
       <c r="A90" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="24" customHeight="1">
       <c r="B91" s="11"/>
       <c r="AA91" s="6" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="AB91" s="6" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="AC91" s="6" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="AD91" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="24" customHeight="1">
@@ -6805,10 +6777,10 @@
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -6816,10 +6788,10 @@
         <v>44</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
@@ -6827,21 +6799,21 @@
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="A101" s="9" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -6849,21 +6821,21 @@
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
       <c r="A106" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
@@ -6871,62 +6843,62 @@
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="12" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="B111" s="13" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="113" spans="1:28" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="114" spans="1:28" ht="24" customHeight="1">
       <c r="A114" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="115" spans="1:28" ht="24" customHeight="1">
       <c r="B115" s="11"/>
       <c r="AA115" s="6" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="AB115" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="117" spans="1:28" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="118" spans="1:28" ht="24" customHeight="1">
       <c r="A118" s="14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="119" spans="1:28" ht="24" customHeight="1">
@@ -6934,10 +6906,10 @@
     </row>
     <row r="121" spans="1:28" ht="24" customHeight="1">
       <c r="A121" s="9" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="122" spans="1:28" ht="24" customHeight="1">
@@ -6945,10 +6917,10 @@
         <v>44</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="123" spans="1:28" ht="24" customHeight="1">
@@ -6956,10 +6928,10 @@
     </row>
     <row r="125" spans="1:28" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="126" spans="1:28" ht="24" customHeight="1">
@@ -6967,10 +6939,10 @@
         <v>44</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
     </row>
     <row r="127" spans="1:28" ht="24" customHeight="1">
@@ -7038,8 +7010,8 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI119"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD119"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7053,20 +7025,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -7077,10 +7049,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7088,10 +7060,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -7099,50 +7071,50 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="177.95" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1">
@@ -7150,83 +7122,83 @@
     </row>
     <row r="22" spans="1:35" ht="24" customHeight="1">
       <c r="A22" s="12" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="24" customHeight="1">
       <c r="B23" s="13" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:35" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="24" customHeight="1">
       <c r="B27" s="11"/>
       <c r="AA27" s="6" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="AE27" s="6" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="AF27" s="6" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="AG27" s="6" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="AH27" s="6" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="AI27" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="31" spans="1:35" ht="24" customHeight="1">
@@ -7234,21 +7206,21 @@
     </row>
     <row r="33" spans="1:35" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="34" spans="1:35" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
     </row>
     <row r="35" spans="1:35" ht="24" customHeight="1">
@@ -7256,10 +7228,10 @@
     </row>
     <row r="37" spans="1:35" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="38" spans="1:35" ht="24" customHeight="1">
@@ -7267,10 +7239,10 @@
         <v>44</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
     </row>
     <row r="39" spans="1:35" ht="24" customHeight="1">
@@ -7278,83 +7250,83 @@
     </row>
     <row r="42" spans="1:35" ht="24" customHeight="1">
       <c r="A42" s="12" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="43" spans="1:35" ht="24" customHeight="1">
       <c r="B43" s="13" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="45" spans="1:35" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:35" ht="24" customHeight="1">
       <c r="A46" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
     </row>
     <row r="47" spans="1:35" ht="24" customHeight="1">
       <c r="B47" s="11"/>
       <c r="AA47" s="6" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="AB47" s="6" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="AC47" s="6" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="AD47" s="6" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="AE47" s="6" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="AF47" s="6" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="AG47" s="6" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="AH47" s="6" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="AI47" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
@@ -7362,21 +7334,21 @@
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -7384,10 +7356,10 @@
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
@@ -7395,10 +7367,10 @@
         <v>44</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
@@ -7406,57 +7378,57 @@
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="B63" s="13" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="24" customHeight="1">
       <c r="A66" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="B67" s="11"/>
       <c r="AA67" s="6" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="AB67" s="6" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="AC67" s="6" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="AD67" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="24" customHeight="1">
@@ -7464,10 +7436,10 @@
         <v>44</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
@@ -7475,21 +7447,21 @@
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
       <c r="A74" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
@@ -7497,21 +7469,21 @@
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="A78" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
@@ -7519,77 +7491,77 @@
     </row>
     <row r="82" spans="1:33" ht="24" customHeight="1">
       <c r="A82" s="12" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="83" spans="1:33" ht="24" customHeight="1">
       <c r="B83" s="13" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="85" spans="1:33" ht="24" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86" spans="1:33" ht="24" customHeight="1">
       <c r="A86" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="87" spans="1:33" ht="24" customHeight="1">
       <c r="B87" s="11"/>
       <c r="AA87" s="6" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="AB87" s="6" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="AC87" s="6" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="AD87" s="6" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="AE87" s="6" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="AF87" s="6" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="AG87" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="1:33" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="90" spans="1:33" ht="24" customHeight="1">
       <c r="A90" s="14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
     <row r="91" spans="1:33" ht="24" customHeight="1">
@@ -7597,21 +7569,21 @@
     </row>
     <row r="93" spans="1:33" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
     </row>
     <row r="94" spans="1:33" ht="24" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
     </row>
     <row r="95" spans="1:33" ht="24" customHeight="1">
@@ -7619,10 +7591,10 @@
     </row>
     <row r="97" spans="1:33" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="98" spans="1:33" ht="24" customHeight="1">
@@ -7630,10 +7602,10 @@
         <v>44</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
     </row>
     <row r="99" spans="1:33" ht="24" customHeight="1">
@@ -7641,77 +7613,77 @@
     </row>
     <row r="102" spans="1:33" ht="24" customHeight="1">
       <c r="A102" s="12" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
     </row>
     <row r="103" spans="1:33" ht="24" customHeight="1">
       <c r="B103" s="13" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="105" spans="1:33" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="106" spans="1:33" ht="24" customHeight="1">
       <c r="A106" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
     </row>
     <row r="107" spans="1:33" ht="24" customHeight="1">
       <c r="B107" s="11"/>
       <c r="AA107" s="6" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="AB107" s="6" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="AC107" s="6" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="AD107" s="6" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="AE107" s="6" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="AF107" s="6" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="AG107" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="109" spans="1:33" ht="24" customHeight="1">
       <c r="A109" s="9" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="110" spans="1:33" ht="24" customHeight="1">
       <c r="A110" s="14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
     </row>
     <row r="111" spans="1:33" ht="24" customHeight="1">
@@ -7719,10 +7691,10 @@
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
@@ -7730,10 +7702,10 @@
         <v>44</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -7741,10 +7713,10 @@
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
@@ -7752,10 +7724,10 @@
         <v>44</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
@@ -7770,8 +7742,8 @@
       <formula1>AA27:AI27</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>-1000000</formula1>
-      <formula2>1000000</formula2>
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
       <formula1>0</formula1>
@@ -7780,8 +7752,8 @@
       <formula1>AA47:AI47</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51">
-      <formula1>-1000000</formula1>
-      <formula2>1000000</formula2>
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55">
       <formula1>0</formula1>
@@ -7816,8 +7788,8 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7831,20 +7803,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -7855,10 +7827,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7866,10 +7838,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -7877,96 +7849,96 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="177.95" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
       <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="AF19" s="6" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="AH19" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
@@ -7974,23 +7946,23 @@
     </row>
     <row r="26" spans="1:34" ht="24" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="24" customHeight="1">
       <c r="B27" s="13" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:34" ht="24" customHeight="1">
@@ -7998,68 +7970,68 @@
         <v>44</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="24" customHeight="1">
       <c r="B31" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34" ht="177.95" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" ht="178" customHeight="1">
       <c r="B32" s="11"/>
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
       <c r="A35" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="B36" s="11"/>
       <c r="AA36" s="6" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="AC36" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
@@ -8067,10 +8039,10 @@
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
@@ -8078,18 +8050,18 @@
         <v>44</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
       <c r="B44" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" ht="177.95" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" ht="178" customHeight="1">
       <c r="B45" s="11"/>
     </row>
   </sheetData>
